--- a/April'21/10.04.2021/Bank Statement.xlsx
+++ b/April'21/10.04.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -678,9 +678,6 @@
     <t>08.04.2021</t>
   </si>
   <si>
-    <t>Date :08-04-2021</t>
-  </si>
-  <si>
     <t>Date:11.04.2021</t>
   </si>
   <si>
@@ -706,6 +703,9 @@
   </si>
   <si>
     <t>10.04.2021</t>
+  </si>
+  <si>
+    <t>Date :10-04-2021</t>
   </si>
 </sst>
 </file>
@@ -2906,6 +2906,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,57 +2979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3702,70 +3702,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="333"/>
-      <c r="O1" s="333"/>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="333"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="335" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="345"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="337"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3774,55 +3774,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="325" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="337" t="s">
+      <c r="B4" s="327" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="337" t="s">
+      <c r="C4" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="331" t="s">
+      <c r="D4" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="331" t="s">
+      <c r="F4" s="329" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="331" t="s">
+      <c r="G4" s="329" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="331" t="s">
+      <c r="H4" s="329" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="331" t="s">
+      <c r="I4" s="329" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="331" t="s">
+      <c r="J4" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="346" t="s">
+      <c r="K4" s="338" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="323" t="s">
+      <c r="L4" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="325" t="s">
+      <c r="M4" s="342" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="327" t="s">
+      <c r="N4" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="329" t="s">
+      <c r="O4" s="346" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="339" t="s">
+      <c r="P4" s="331" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="341" t="s">
+      <c r="Q4" s="333" t="s">
         <v>130</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3835,23 +3835,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="336"/>
-      <c r="B5" s="338"/>
-      <c r="C5" s="338"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
-      <c r="J5" s="332"/>
-      <c r="K5" s="347"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="328"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="340"/>
-      <c r="Q5" s="342"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="341"/>
+      <c r="M5" s="343"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="332"/>
+      <c r="Q5" s="334"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="13" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="115"/>
       <c r="C13" s="116">
@@ -6809,6 +6809,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6825,10 +6829,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="65">
         <v>0</v>
@@ -8817,8 +8817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="355" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="356"/>
       <c r="C2" s="356"/>
@@ -9341,9 +9341,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="374" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B5" s="375"/>
       <c r="C5" s="192"/>
@@ -9938,10 +9938,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="166" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="151" t="s">
         <v>161</v>
-      </c>
-      <c r="C18" s="151" t="s">
-        <v>162</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="150"/>
@@ -9968,10 +9968,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="166" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="150" t="s">
         <v>163</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>164</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="150"/>
@@ -10000,10 +10000,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="177"/>
       <c r="E20" s="165"/>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="388" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="388"/>
       <c r="C2" s="388"/>
